--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\welmer\Documents\UiPath\Generate Yearly Report  Performer\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F2D2FF6-9826-4BCB-98B2-82243A32A15F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D52672F1-3581-43CC-ABF4-BA6E78607A32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2235" yWindow="1365" windowWidth="15375" windowHeight="7995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -171,10 +171,10 @@
     <t>System1_Credential</t>
   </si>
   <si>
-    <t>Path_Temp</t>
-  </si>
-  <si>
     <t>Data\Temp</t>
+  </si>
+  <si>
+    <t>ReportsDownloadPath</t>
   </si>
 </sst>
 </file>
@@ -242,7 +242,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -255,6 +255,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -601,7 +602,7 @@
   <dimension ref="A1:Z998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -696,10 +697,10 @@
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1">
       <c r="A8" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>48</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
